--- a/data/TopOnePercent/Beijing Normal University.xlsx
+++ b/data/TopOnePercent/Beijing Normal University.xlsx
@@ -184,16 +184,16 @@
         </is>
       </c>
       <c r="C7" s="3" t="n">
-        <v>3687.0</v>
+        <v>3688.0</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>49758.0</v>
+        <v>49858.0</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>13.5</v>
+        <v>13.52</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>54.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="8">
@@ -206,16 +206,16 @@
         </is>
       </c>
       <c r="C8" s="3" t="n">
-        <v>3252.0</v>
+        <v>3256.0</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>48796.0</v>
+        <v>48396.0</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>15.0</v>
+        <v>14.86</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>66.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="9">
@@ -228,16 +228,16 @@
         </is>
       </c>
       <c r="C9" s="3" t="n">
-        <v>3037.0</v>
+        <v>2894.0</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>44408.0</v>
+        <v>42472.0</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>14.62</v>
+        <v>14.68</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="10">
@@ -250,16 +250,16 @@
         </is>
       </c>
       <c r="C10" s="3" t="n">
-        <v>3085.0</v>
+        <v>2889.0</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v>34069.0</v>
+        <v>31893.0</v>
       </c>
       <c r="E10" s="3" t="n">
         <v>11.04</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>40.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="11">
@@ -272,16 +272,16 @@
         </is>
       </c>
       <c r="C11" s="3" t="n">
-        <v>1293.0</v>
+        <v>1248.0</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>31889.0</v>
+        <v>28864.0</v>
       </c>
       <c r="E11" s="3" t="n">
-        <v>24.66</v>
+        <v>23.13</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>25.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="12">
@@ -294,16 +294,16 @@
         </is>
       </c>
       <c r="C12" s="3" t="n">
-        <v>1429.0</v>
+        <v>1408.0</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>18801.0</v>
+        <v>17751.0</v>
       </c>
       <c r="E12" s="3" t="n">
-        <v>13.16</v>
+        <v>12.61</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>32.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="13">
@@ -316,16 +316,16 @@
         </is>
       </c>
       <c r="C13" s="3" t="n">
-        <v>818.0</v>
+        <v>821.0</v>
       </c>
       <c r="D13" s="3" t="n">
-        <v>17277.0</v>
+        <v>17417.0</v>
       </c>
       <c r="E13" s="3" t="n">
-        <v>21.12</v>
+        <v>21.21</v>
       </c>
       <c r="F13" s="3" t="n">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="14">
@@ -338,16 +338,16 @@
         </is>
       </c>
       <c r="C14" s="3" t="n">
-        <v>1345.0</v>
+        <v>1365.0</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>12052.0</v>
+        <v>11816.0</v>
       </c>
       <c r="E14" s="3" t="n">
-        <v>8.96</v>
+        <v>8.66</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="15">
@@ -356,20 +356,20 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>MATHEMATICS</t>
+          <t>SOCIAL SCIENCES, GENERAL</t>
         </is>
       </c>
       <c r="C15" s="3" t="n">
-        <v>1859.0</v>
+        <v>1119.0</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>10448.0</v>
+        <v>9820.0</v>
       </c>
       <c r="E15" s="3" t="n">
-        <v>5.62</v>
+        <v>8.78</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>20.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="16">
@@ -378,20 +378,20 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>SOCIAL SCIENCES, GENERAL</t>
+          <t>MATHEMATICS</t>
         </is>
       </c>
       <c r="C16" s="3" t="n">
-        <v>1107.0</v>
+        <v>1768.0</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>10016.0</v>
+        <v>9559.0</v>
       </c>
       <c r="E16" s="3" t="n">
-        <v>9.05</v>
+        <v>5.41</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>31.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="17">
@@ -404,16 +404,16 @@
         </is>
       </c>
       <c r="C17" s="3" t="n">
-        <v>606.0</v>
+        <v>600.0</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>8952.0</v>
+        <v>8602.0</v>
       </c>
       <c r="E17" s="3" t="n">
-        <v>14.77</v>
+        <v>14.34</v>
       </c>
       <c r="F17" s="3" t="n">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="18">
@@ -426,16 +426,16 @@
         </is>
       </c>
       <c r="C18" s="3" t="n">
-        <v>550.0</v>
+        <v>507.0</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>8514.0</v>
+        <v>7737.0</v>
       </c>
       <c r="E18" s="3" t="n">
-        <v>15.48</v>
+        <v>15.26</v>
       </c>
       <c r="F18" s="3" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="19">
@@ -448,13 +448,13 @@
         </is>
       </c>
       <c r="C19" s="3" t="n">
-        <v>569.0</v>
+        <v>547.0</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>6364.0</v>
+        <v>5643.0</v>
       </c>
       <c r="E19" s="3" t="n">
-        <v>11.18</v>
+        <v>10.32</v>
       </c>
       <c r="F19" s="3" t="n">
         <v>4.0</v>
@@ -470,16 +470,16 @@
         </is>
       </c>
       <c r="C20" s="3" t="n">
-        <v>351.0</v>
+        <v>340.0</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>3840.0</v>
+        <v>3481.0</v>
       </c>
       <c r="E20" s="3" t="n">
-        <v>10.94</v>
+        <v>10.24</v>
       </c>
       <c r="F20" s="3" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="21">
@@ -492,22 +492,22 @@
         </is>
       </c>
       <c r="C21" s="3" t="n">
-        <v>25058.0</v>
+        <v>24503.0</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>331520.0</v>
+        <v>317478.0</v>
       </c>
       <c r="E21" s="3" t="n">
-        <v>13.23</v>
+        <v>12.96</v>
       </c>
       <c r="F21" s="3" t="n">
-        <v>376.0</v>
+        <v>359.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Copyright © 2019 Clarivate Analytics</t>
+          <t>Copyright © 2020 Clarivate Analytics</t>
         </is>
       </c>
     </row>
